--- a/All-Results/Model Pruning Results.xlsx
+++ b/All-Results/Model Pruning Results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>Model Pruning Results</t>
   </si>
@@ -644,7 +644,9 @@
     <t>ResNet110</t>
   </si>
   <si>
-    <t>Filter Pruning via Geometric Median (FPGM)</t>
+    <t>Filter Pruning via Geometric Median (FPGM)++(200 epochs of iterative pruning+fine-tuning)</t>
   </si>
   <si>
     <t>40% filters of each convolutional layer by distance based criterion</t>
@@ -673,7 +675,10 @@
     <t>7.24 MB</t>
   </si>
   <si>
-    <t>1% (needs review)</t>
+    <t>1% (needs less aggressive pruning)</t>
+  </si>
+  <si>
+    <t>62.97% (needs less aggressive pruning)</t>
   </si>
   <si>
     <t>552.73 kB</t>
@@ -683,6 +688,11 @@
   </si>
   <si>
     <t>Classification on the ImageNet dataset</t>
+  </si>
+  <si>
+    <t>Filter Pruning via Geometric Median (FPGM)++(100 epochs of iterative pruning+fine-tuning)</t>
   </si>
   <si>
     <r>
@@ -1024,7 +1034,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1142,9 +1152,6 @@
     <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1196,13 +1203,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>42227</xdr:rowOff>
+      <xdr:rowOff>40830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>24447</xdr:rowOff>
+      <xdr:rowOff>23050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1221,7 +1228,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1651000" y="26386472"/>
+          <a:off x="1651000" y="26385075"/>
           <a:ext cx="5778500" cy="7112001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3389,8 +3396,12 @@
       <c r="J24" s="38">
         <v>1719216</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="K24" s="37">
+        <v>0.6397</v>
+      </c>
+      <c r="L24" s="36">
+        <v>7.689458796296296e-05</v>
+      </c>
       <c r="M24" t="s" s="24">
         <v>116</v>
       </c>
@@ -3403,16 +3414,20 @@
       <c r="P24" s="28">
         <v>0.6606</v>
       </c>
-      <c r="Q24" s="39"/>
+      <c r="Q24" s="34">
+        <v>-2.09</v>
+      </c>
       <c r="R24" t="s" s="24">
         <v>117</v>
       </c>
-      <c r="S24" s="39"/>
+      <c r="S24" t="s" s="24">
+        <v>118</v>
+      </c>
       <c r="T24" s="22">
         <v>7.337325578703704e-05</v>
       </c>
       <c r="U24" t="s" s="24">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" ht="53.05" customHeight="1">
@@ -3420,16 +3435,16 @@
         <v>13</v>
       </c>
       <c r="C25" t="s" s="31">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s" s="19">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25" s="32">
         <v>1000</v>
       </c>
       <c r="F25" t="s" s="19">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s" s="19">
         <v>96</v>
@@ -3438,13 +3453,13 @@
         <v>114</v>
       </c>
       <c r="I25" t="s" s="19">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J25" s="20">
         <v>60192808</v>
       </c>
-      <c r="K25" t="s" s="40">
-        <v>122</v>
+      <c r="K25" t="s" s="39">
+        <v>124</v>
       </c>
       <c r="L25" t="s" s="24">
         <v>32</v>
@@ -3570,7 +3585,7 @@
         <v>14</v>
       </c>
       <c r="C30" t="s" s="31">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s" s="19">
         <v>22</v>
@@ -3579,16 +3594,16 @@
         <v>10</v>
       </c>
       <c r="F30" t="s" s="33">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s" s="33">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s" s="19">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I30" t="s" s="19">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J30" s="20">
         <v>9756426</v>
@@ -3596,11 +3611,11 @@
       <c r="K30" s="37">
         <v>0.9234</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="40">
         <v>3.542190277777778e-06</v>
       </c>
       <c r="M30" t="s" s="24">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N30" t="s" s="24">
         <v>32</v>
@@ -3620,11 +3635,11 @@
       <c r="S30" s="28">
         <v>0.1076</v>
       </c>
-      <c r="T30" s="41">
+      <c r="T30" s="40">
         <v>3.646404780092593e-06</v>
       </c>
       <c r="U30" t="s" s="24">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" ht="62.05" customHeight="1">
@@ -3641,16 +3656,16 @@
         <v>10</v>
       </c>
       <c r="F31" t="s" s="33">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s" s="33">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H31" t="s" s="19">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s" s="19">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J31" s="34">
         <v>14710464</v>
@@ -3682,11 +3697,11 @@
       <c r="S31" s="28">
         <v>0.1384</v>
       </c>
-      <c r="T31" s="42">
+      <c r="T31" s="41">
         <v>7.711601851851852e-06</v>
       </c>
       <c r="U31" t="s" s="24">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -3785,22 +3800,22 @@
         <v>105</v>
       </c>
       <c r="D36" t="s" s="19">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E36" s="32">
         <v>102</v>
       </c>
       <c r="F36" t="s" s="19">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s" s="19">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H36" t="s" s="19">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I36" t="s" s="19">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J36" t="s" s="24">
         <v>32</v>
@@ -3809,10 +3824,10 @@
         <v>0.801</v>
       </c>
       <c r="L36" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M36" t="s" s="24">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N36" t="s" s="24">
         <v>32</v>
@@ -3826,17 +3841,17 @@
       <c r="Q36" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="R36" s="43">
+      <c r="R36" s="42">
         <v>0.798</v>
       </c>
       <c r="S36" s="29">
         <v>0.003</v>
       </c>
       <c r="T36" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U36" t="s" s="23">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" ht="54" customHeight="1">
@@ -3847,10 +3862,10 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" t="s" s="19">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I37" t="s" s="19">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J37" t="s" s="24">
         <v>32</v>
@@ -3859,10 +3874,10 @@
         <v>0.801</v>
       </c>
       <c r="L37" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M37" t="s" s="24">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N37" t="s" s="24">
         <v>32</v>
@@ -3876,17 +3891,17 @@
       <c r="Q37" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="R37" s="43">
+      <c r="R37" s="42">
         <v>0.741</v>
       </c>
       <c r="S37" s="29">
         <v>0.06</v>
       </c>
       <c r="T37" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U37" t="s" s="23">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" ht="26.05" customHeight="1">
@@ -3897,34 +3912,34 @@
         <v>94</v>
       </c>
       <c r="D38" t="s" s="19">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" s="32">
         <v>1000</v>
       </c>
       <c r="F38" t="s" s="19">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G38" t="s" s="19">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s" s="19">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s" s="19">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J38" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="K38" s="43">
+      <c r="K38" s="42">
         <v>0.893</v>
       </c>
       <c r="L38" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s" s="23">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N38" t="s" s="24">
         <v>32</v>
@@ -3938,17 +3953,17 @@
       <c r="Q38" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="R38" s="43">
+      <c r="R38" s="42">
         <v>0.87</v>
       </c>
-      <c r="S38" s="43">
+      <c r="S38" s="42">
         <v>0.023</v>
       </c>
       <c r="T38" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U38" t="s" s="23">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" ht="54" customHeight="1">
@@ -3959,22 +3974,22 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" t="s" s="19">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I39" t="s" s="19">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J39" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="K39" s="43">
+      <c r="K39" s="42">
         <v>0.893</v>
       </c>
       <c r="L39" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M39" t="s" s="23">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N39" t="s" s="24">
         <v>32</v>
@@ -3988,17 +4003,17 @@
       <c r="Q39" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="R39" s="43">
+      <c r="R39" s="42">
         <v>0.845</v>
       </c>
-      <c r="S39" s="43">
+      <c r="S39" s="42">
         <v>0.048</v>
       </c>
       <c r="T39" t="s" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U39" t="s" s="23">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -4091,8 +4106,8 @@
     </row>
     <row r="44" ht="30.8" customHeight="1">
       <c r="B44" s="16"/>
-      <c r="C44" t="s" s="44">
-        <v>146</v>
+      <c r="C44" t="s" s="43">
+        <v>148</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
